--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vzagojun\tmp\treinamento-qa-nttdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vzagojun\tmp\repositorio_novo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB03080-AEDF-4F56-9477-2D6459C24D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647B6CCF-0D25-4D21-964A-64BCBF09C3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>asdasd</t>
   </si>
@@ -345,25 +345,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F6:M10"/>
+  <dimension ref="C3:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>0</v>
       </c>
